--- a/fuentes/contenidos/grado10/guion06/Escaleta CN_10_06_CO_F.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta CN_10_06_CO_F.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="208">
   <si>
     <t>Asignatura</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>Recurso F6B-03</t>
-  </si>
-  <si>
-    <t>Recurso F4-03</t>
   </si>
   <si>
     <t>Recurso M2A-01</t>
@@ -890,16 +887,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,24 +954,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,9 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1295,94 +1292,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="38"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -2557,21 +2554,11 @@
       <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="32">
-        <v>10</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>130</v>
-      </c>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="27"/>
     </row>
     <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
@@ -2622,7 +2609,7 @@
         <v>137</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>139</v>
@@ -2677,7 +2664,7 @@
         <v>137</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>139</v>
@@ -2732,7 +2719,7 @@
         <v>137</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>139</v>
@@ -4150,12 +4137,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4170,6 +4151,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
